--- a/src/main/webapp/meta/client/clientBooking/Application_Form.xlsx
+++ b/src/main/webapp/meta/client/clientBooking/Application_Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F37B1-E8D4-4C42-9DF9-5CD0C15C36FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE26B41A-C045-4738-B8B4-9773987B854E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Form" sheetId="4" r:id="rId1"/>
@@ -381,22 +381,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,25 +692,25 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.68359375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.68359375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.68359375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26171875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.26171875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="26" customWidth="1"/>
     <col min="6" max="7" width="34" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.9453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.68359375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="41.47265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.26171875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31" customHeight="1">
+    <row r="1" spans="1:14" ht="31.05" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -767,8 +767,8 @@
       <c r="D3" s="28"/>
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="36"/>
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
@@ -1329,12 +1329,15 @@
       <c r="L40" s="46"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Club Photography,Festival,Product Shoot"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4:H40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H40" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Photography,Film,Marketing,Other (please specify the booking type if your option is other)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{2B3B39E0-2598-4CC2-B3F1-412A9D7473B1}">
+      <formula1>"Photography,Film,Marketing,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
